--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  16.02.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  23.02.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6219,6 +6219,30 @@
       </c>
       <c r="FALSE20" s="6"/>
     </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>44242</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>532</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>224</v>
+      </c>
+      <c r="FALSE21" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  23.02.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  02.03.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6243,6 +6243,30 @@
       </c>
       <c r="FALSE21" s="6"/>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>44249</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>87</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>619</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>260</v>
+      </c>
+      <c r="FALSE22" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  02.03.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  09.03.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6267,6 +6267,30 @@
       </c>
       <c r="FALSE22" s="6"/>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>44256</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>705</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>325</v>
+      </c>
+      <c r="FALSE23" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  09.03.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  16.03.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6291,6 +6291,30 @@
       </c>
       <c r="FALSE23" s="6"/>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>44263</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>791</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>367</v>
+      </c>
+      <c r="FALSE24" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  16.03.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  23.03.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6315,6 +6315,30 @@
       </c>
       <c r="FALSE24" s="6"/>
     </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>44270</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>99</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>890</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>399</v>
+      </c>
+      <c r="FALSE25" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  23.03.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  30.03.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6339,6 +6339,30 @@
       </c>
       <c r="FALSE25" s="6"/>
     </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>44277</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>76</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>966</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>459</v>
+      </c>
+      <c r="FALSE26" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  30.03.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  06.04.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6363,6 +6363,30 @@
       </c>
       <c r="FALSE26" s="6"/>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>44284</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>71</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>1037</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>521</v>
+      </c>
+      <c r="FALSE27" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  06.04.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  13.04.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6387,6 +6387,30 @@
       </c>
       <c r="FALSE27" s="6"/>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>44291</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>1065</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>551</v>
+      </c>
+      <c r="FALSE28" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  13.04.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  20.04.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6411,6 +6411,30 @@
       </c>
       <c r="FALSE28" s="6"/>
     </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>44298</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>1104</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>585</v>
+      </c>
+      <c r="FALSE29" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  20.04.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  27.04.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6435,6 +6435,30 @@
       </c>
       <c r="FALSE29" s="6"/>
     </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>44305</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="E30" s="10" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>57</v>
+      </c>
+      <c r="G30" s="10" t="n">
+        <v>642</v>
+      </c>
+      <c r="FALSE30" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  27.04.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  04.05.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6459,6 +6459,30 @@
       </c>
       <c r="FALSE30" s="6"/>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>44312</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>103</v>
+      </c>
+      <c r="E31" s="10" t="n">
+        <v>1293</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" s="10" t="n">
+        <v>672</v>
+      </c>
+      <c r="FALSE31" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  04.05.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  11.05.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6483,6 +6483,30 @@
       </c>
       <c r="FALSE31" s="6"/>
     </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>44319</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>101</v>
+      </c>
+      <c r="E32" s="10" t="n">
+        <v>1394</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="G32" s="10" t="n">
+        <v>708</v>
+      </c>
+      <c r="FALSE32" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  11.05.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  18.05.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6507,6 +6507,30 @@
       </c>
       <c r="FALSE32" s="6"/>
     </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>44326</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>79</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>1473</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="G33" s="10" t="n">
+        <v>740</v>
+      </c>
+      <c r="FALSE33" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  18.05.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  25.05.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6531,6 +6531,30 @@
       </c>
       <c r="FALSE33" s="6"/>
     </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>44333</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <v>115</v>
+      </c>
+      <c r="E34" s="10" t="n">
+        <v>1588</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="G34" s="10" t="n">
+        <v>779</v>
+      </c>
+      <c r="FALSE34" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  25.05.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  01.06.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6555,6 +6555,30 @@
       </c>
       <c r="FALSE34" s="6"/>
     </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="E35" s="10" t="n">
+        <v>1668</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="G35" s="10" t="n">
+        <v>812</v>
+      </c>
+      <c r="FALSE35" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  01.06.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  08.06.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6579,6 +6579,30 @@
       </c>
       <c r="FALSE35" s="6"/>
     </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>44347</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="E36" s="10" t="n">
+        <v>1753</v>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="G36" s="10" t="n">
+        <v>861</v>
+      </c>
+      <c r="FALSE36" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  08.06.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  15.06.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6603,6 +6603,30 @@
       </c>
       <c r="FALSE36" s="6"/>
     </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>44354</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>76</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>1829</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="G37" s="10" t="n">
+        <v>888</v>
+      </c>
+      <c r="FALSE37" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  15.06.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  22.06.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6627,6 +6627,30 @@
       </c>
       <c r="FALSE37" s="6"/>
     </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>44361</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <v>88</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>1917</v>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="G38" s="10" t="n">
+        <v>926</v>
+      </c>
+      <c r="FALSE38" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  22.06.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  29.06.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6651,6 +6651,30 @@
       </c>
       <c r="FALSE38" s="6"/>
     </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>44368</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G39" s="10" t="n">
+        <v>966</v>
+      </c>
+      <c r="FALSE39" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  29.06.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  06.07.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6662,18 +6662,42 @@
         <v>44368</v>
       </c>
       <c r="D39" s="10" t="n">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G39" s="10" t="n">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="FALSE39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>44375</v>
+      </c>
+      <c r="D40" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <v>2103</v>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="G40" s="10" t="n">
+        <v>1016</v>
+      </c>
+      <c r="FALSE40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  06.07.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  13.07.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6699,6 +6699,30 @@
       </c>
       <c r="FALSE40" s="6"/>
     </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>44382</v>
+      </c>
+      <c r="D41" s="10" t="n">
+        <v>94</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>2197</v>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="G41" s="10" t="n">
+        <v>1065</v>
+      </c>
+      <c r="FALSE41" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  13.07.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  20.07.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6723,6 +6723,30 @@
       </c>
       <c r="FALSE41" s="6"/>
     </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>44389</v>
+      </c>
+      <c r="D42" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="E42" s="10" t="n">
+        <v>2292</v>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G42" s="10" t="n">
+        <v>1095</v>
+      </c>
+      <c r="FALSE42" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  20.07.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  03.08.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6747,6 +6747,54 @@
       </c>
       <c r="FALSE42" s="6"/>
     </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>44396</v>
+      </c>
+      <c r="D43" s="10" t="n">
+        <v>91</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="G43" s="10" t="n">
+        <v>1127</v>
+      </c>
+      <c r="FALSE43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>44403</v>
+      </c>
+      <c r="D44" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E44" s="10" t="n">
+        <v>2399</v>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="G44" s="10" t="n">
+        <v>1159</v>
+      </c>
+      <c r="FALSE44" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  03.08.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  07.09.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6795,6 +6795,126 @@
       </c>
       <c r="FALSE44" s="6"/>
     </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>44410</v>
+      </c>
+      <c r="D45" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E45" s="10" t="n">
+        <v>2415</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G45" s="10" t="n">
+        <v>1185</v>
+      </c>
+      <c r="FALSE45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>44417</v>
+      </c>
+      <c r="D46" s="10" t="n">
+        <v>74</v>
+      </c>
+      <c r="E46" s="10" t="n">
+        <v>2489</v>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G46" s="10" t="n">
+        <v>1209</v>
+      </c>
+      <c r="FALSE46" s="6"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>44424</v>
+      </c>
+      <c r="D47" s="10" t="n">
+        <v>82</v>
+      </c>
+      <c r="E47" s="10" t="n">
+        <v>2571</v>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="G47" s="10" t="n">
+        <v>1232</v>
+      </c>
+      <c r="FALSE47" s="6"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>44431</v>
+      </c>
+      <c r="D48" s="10" t="n">
+        <v>103</v>
+      </c>
+      <c r="E48" s="10" t="n">
+        <v>2674</v>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="G48" s="10" t="n">
+        <v>1281</v>
+      </c>
+      <c r="FALSE48" s="6"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>44438</v>
+      </c>
+      <c r="D49" s="10" t="n">
+        <v>117</v>
+      </c>
+      <c r="E49" s="10" t="n">
+        <v>2791</v>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="G49" s="10" t="n">
+        <v>1334</v>
+      </c>
+      <c r="FALSE49" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  07.09.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  05.10.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -6915,6 +6915,102 @@
       </c>
       <c r="FALSE49" s="6"/>
     </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>44445</v>
+      </c>
+      <c r="D50" s="10" t="n">
+        <v>94</v>
+      </c>
+      <c r="E50" s="10" t="n">
+        <v>2885</v>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="G50" s="10" t="n">
+        <v>1367</v>
+      </c>
+      <c r="FALSE50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>44452</v>
+      </c>
+      <c r="D51" s="10" t="n">
+        <v>112</v>
+      </c>
+      <c r="E51" s="10" t="n">
+        <v>2997</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="G51" s="10" t="n">
+        <v>1402</v>
+      </c>
+      <c r="FALSE51" s="6"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>44459</v>
+      </c>
+      <c r="D52" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="E52" s="10" t="n">
+        <v>3086</v>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="G52" s="10" t="n">
+        <v>1450</v>
+      </c>
+      <c r="FALSE52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>44466</v>
+      </c>
+      <c r="D53" s="10" t="n">
+        <v>91</v>
+      </c>
+      <c r="E53" s="10" t="n">
+        <v>3177</v>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="G53" s="10" t="n">
+        <v>1501</v>
+      </c>
+      <c r="FALSE53" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  05.10.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  01.11.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -7011,6 +7011,102 @@
       </c>
       <c r="FALSE53" s="6"/>
     </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>44473</v>
+      </c>
+      <c r="D54" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="E54" s="10" t="n">
+        <v>3272</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="G54" s="10" t="n">
+        <v>1553</v>
+      </c>
+      <c r="FALSE54" s="6"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>41</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>44480</v>
+      </c>
+      <c r="D55" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="E55" s="10" t="n">
+        <v>3344</v>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="G55" s="10" t="n">
+        <v>1602</v>
+      </c>
+      <c r="FALSE55" s="6"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>44487</v>
+      </c>
+      <c r="D56" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="E56" s="10" t="n">
+        <v>3428</v>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="G56" s="10" t="n">
+        <v>1646</v>
+      </c>
+      <c r="FALSE56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>44494</v>
+      </c>
+      <c r="D57" s="10" t="n">
+        <v>92</v>
+      </c>
+      <c r="E57" s="10" t="n">
+        <v>3520</v>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="G57" s="10" t="n">
+        <v>1684</v>
+      </c>
+      <c r="FALSE57" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  01.11.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  07.12.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -7107,6 +7107,126 @@
       </c>
       <c r="FALSE57" s="6"/>
     </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>44501</v>
+      </c>
+      <c r="D58" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="E58" s="10" t="n">
+        <v>3605</v>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="G58" s="10" t="n">
+        <v>1723</v>
+      </c>
+      <c r="FALSE58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>44508</v>
+      </c>
+      <c r="D59" s="10" t="n">
+        <v>93</v>
+      </c>
+      <c r="E59" s="10" t="n">
+        <v>3698</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="G59" s="10" t="n">
+        <v>1774</v>
+      </c>
+      <c r="FALSE59" s="6"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>44515</v>
+      </c>
+      <c r="D60" s="10" t="n">
+        <v>88</v>
+      </c>
+      <c r="E60" s="10" t="n">
+        <v>3786</v>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>73</v>
+      </c>
+      <c r="G60" s="10" t="n">
+        <v>1847</v>
+      </c>
+      <c r="FALSE60" s="6"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>44522</v>
+      </c>
+      <c r="D61" s="10" t="n">
+        <v>119</v>
+      </c>
+      <c r="E61" s="10" t="n">
+        <v>3905</v>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="G61" s="10" t="n">
+        <v>1902</v>
+      </c>
+      <c r="FALSE61" s="6"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>44529</v>
+      </c>
+      <c r="D62" s="10" t="n">
+        <v>92</v>
+      </c>
+      <c r="E62" s="10" t="n">
+        <v>3997</v>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>73</v>
+      </c>
+      <c r="G62" s="10" t="n">
+        <v>1975</v>
+      </c>
+      <c r="FALSE62" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  07.12.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  21.12.2021  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -7227,6 +7227,54 @@
       </c>
       <c r="FALSE62" s="6"/>
     </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>44536</v>
+      </c>
+      <c r="D63" s="10" t="n">
+        <v>99</v>
+      </c>
+      <c r="E63" s="10" t="n">
+        <v>4096</v>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="G63" s="10" t="n">
+        <v>2012</v>
+      </c>
+      <c r="FALSE63" s="6"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>44543</v>
+      </c>
+      <c r="D64" s="10" t="n">
+        <v>122</v>
+      </c>
+      <c r="E64" s="10" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="G64" s="10" t="n">
+        <v>2061</v>
+      </c>
+      <c r="FALSE64" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  21.12.2021  durch:  il</t>
+    <t xml:space="preserve">Aktualisiert am  04.01.2022  durch:  il</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
@@ -7275,6 +7275,54 @@
       </c>
       <c r="FALSE64" s="6"/>
     </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>44550</v>
+      </c>
+      <c r="D65" s="10" t="n">
+        <v>130</v>
+      </c>
+      <c r="E65" s="10" t="n">
+        <v>4348</v>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="G65" s="10" t="n">
+        <v>2119</v>
+      </c>
+      <c r="FALSE65" s="6"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>44557</v>
+      </c>
+      <c r="D66" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E66" s="10" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G66" s="10" t="n">
+        <v>2136</v>
+      </c>
+      <c r="FALSE66" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  01.02.2022  durch:  </t>
+    <t xml:space="preserve">Aktualisiert am  02.03.2022  durch:  </t>
   </si>
   <si>
     <t xml:space="preserve">Jahr  </t>
@@ -765,13 +765,13 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>4705</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>1546</v>
+        <v>13</v>
       </c>
       <c r="FALSE14" s="5"/>
     </row>
@@ -789,13 +789,13 @@
         <v>62</v>
       </c>
       <c r="E15" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F15" t="n">
         <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="FALSE15" s="5"/>
     </row>
@@ -813,13 +813,13 @@
         <v>129</v>
       </c>
       <c r="E16" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F16" t="n">
         <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="FALSE16" s="5"/>
     </row>
@@ -837,13 +837,13 @@
         <v>125</v>
       </c>
       <c r="E17" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F17" t="n">
         <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="FALSE17" s="5"/>
     </row>
@@ -861,13 +861,13 @@
         <v>112</v>
       </c>
       <c r="E18" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F18" t="n">
         <v>63</v>
       </c>
       <c r="G18" t="n">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="FALSE18" s="5"/>
     </row>
@@ -885,13 +885,13 @@
         <v>106</v>
       </c>
       <c r="E19" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F19" t="n">
         <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="FALSE19" s="5"/>
     </row>
@@ -909,13 +909,13 @@
         <v>68</v>
       </c>
       <c r="E20" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="F20" t="n">
         <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="FALSE20" s="5"/>
     </row>
@@ -933,13 +933,13 @@
         <v>104</v>
       </c>
       <c r="E21" t="n">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F21" t="n">
         <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="FALSE21" s="5"/>
     </row>
@@ -957,13 +957,13 @@
         <v>92</v>
       </c>
       <c r="E22" t="n">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="FALSE22" s="5"/>
     </row>
@@ -981,13 +981,13 @@
         <v>88</v>
       </c>
       <c r="E23" t="n">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="F23" t="n">
         <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="FALSE23" s="5"/>
     </row>
@@ -1005,13 +1005,13 @@
         <v>108</v>
       </c>
       <c r="E24" t="n">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F24" t="n">
         <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="FALSE24" s="5"/>
     </row>
@@ -1029,13 +1029,13 @@
         <v>114</v>
       </c>
       <c r="E25" t="n">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="F25" t="n">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="FALSE25" s="5"/>
     </row>
@@ -1053,13 +1053,13 @@
         <v>122</v>
       </c>
       <c r="E26" t="n">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="F26" t="n">
         <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="FALSE26" s="5"/>
     </row>
@@ -1077,13 +1077,13 @@
         <v>88</v>
       </c>
       <c r="E27" t="n">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="F27" t="n">
         <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="FALSE27" s="5"/>
     </row>
@@ -1101,13 +1101,13 @@
         <v>111</v>
       </c>
       <c r="E28" t="n">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="F28" t="n">
         <v>29</v>
       </c>
       <c r="G28" t="n">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="FALSE28" s="5"/>
     </row>
@@ -1125,13 +1125,13 @@
         <v>22</v>
       </c>
       <c r="E29" t="n">
-        <v>4727</v>
+        <v>1454</v>
       </c>
       <c r="F29" t="n">
         <v>16</v>
       </c>
       <c r="G29" t="n">
-        <v>1562</v>
+        <v>416</v>
       </c>
       <c r="FALSE29" s="5"/>
     </row>
@@ -1149,13 +1149,13 @@
         <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>1446</v>
+        <v>1471</v>
       </c>
       <c r="F30" t="n">
         <v>48</v>
       </c>
       <c r="G30" t="n">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="FALSE30" s="5"/>
     </row>
@@ -1173,13 +1173,13 @@
         <v>117</v>
       </c>
       <c r="E31" t="n">
-        <v>1563</v>
+        <v>1588</v>
       </c>
       <c r="F31" t="n">
         <v>45</v>
       </c>
       <c r="G31" t="n">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="FALSE31" s="5"/>
     </row>
@@ -1197,13 +1197,13 @@
         <v>135</v>
       </c>
       <c r="E32" t="n">
-        <v>1698</v>
+        <v>1723</v>
       </c>
       <c r="F32" t="n">
         <v>19</v>
       </c>
       <c r="G32" t="n">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="FALSE32" s="5"/>
     </row>
@@ -1221,13 +1221,13 @@
         <v>109</v>
       </c>
       <c r="E33" t="n">
-        <v>1807</v>
+        <v>1832</v>
       </c>
       <c r="F33" t="n">
         <v>26</v>
       </c>
       <c r="G33" t="n">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="FALSE33" s="5"/>
     </row>
@@ -1245,13 +1245,13 @@
         <v>87</v>
       </c>
       <c r="E34" t="n">
-        <v>1894</v>
+        <v>1919</v>
       </c>
       <c r="F34" t="n">
         <v>15</v>
       </c>
       <c r="G34" t="n">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="FALSE34" s="5"/>
     </row>
@@ -1269,13 +1269,13 @@
         <v>104</v>
       </c>
       <c r="E35" t="n">
-        <v>1998</v>
+        <v>2023</v>
       </c>
       <c r="F35" t="n">
         <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="FALSE35" s="5"/>
     </row>
@@ -1293,13 +1293,13 @@
         <v>96</v>
       </c>
       <c r="E36" t="n">
-        <v>4823</v>
+        <v>2119</v>
       </c>
       <c r="F36" t="n">
         <v>25</v>
       </c>
       <c r="G36" t="n">
-        <v>1587</v>
+        <v>634</v>
       </c>
       <c r="FALSE36" s="5"/>
     </row>
@@ -1317,13 +1317,13 @@
         <v>94</v>
       </c>
       <c r="E37" t="n">
-        <v>2092</v>
+        <v>2213</v>
       </c>
       <c r="F37" t="n">
         <v>30</v>
       </c>
       <c r="G37" t="n">
-        <v>610</v>
+        <v>664</v>
       </c>
       <c r="FALSE37" s="5"/>
     </row>
@@ -1341,13 +1341,13 @@
         <v>102</v>
       </c>
       <c r="E38" t="n">
-        <v>2194</v>
+        <v>2315</v>
       </c>
       <c r="F38" t="n">
         <v>67</v>
       </c>
       <c r="G38" t="n">
-        <v>677</v>
+        <v>731</v>
       </c>
       <c r="FALSE38" s="5"/>
     </row>
@@ -1365,13 +1365,13 @@
         <v>94</v>
       </c>
       <c r="E39" t="n">
-        <v>2288</v>
+        <v>2409</v>
       </c>
       <c r="F39" t="n">
         <v>39</v>
       </c>
       <c r="G39" t="n">
-        <v>716</v>
+        <v>770</v>
       </c>
       <c r="FALSE39" s="5"/>
     </row>
@@ -1389,13 +1389,13 @@
         <v>112</v>
       </c>
       <c r="E40" t="n">
-        <v>2400</v>
+        <v>2521</v>
       </c>
       <c r="F40" t="n">
         <v>35</v>
       </c>
       <c r="G40" t="n">
-        <v>751</v>
+        <v>805</v>
       </c>
       <c r="FALSE40" s="5"/>
     </row>
@@ -1413,13 +1413,13 @@
         <v>109</v>
       </c>
       <c r="E41" t="n">
-        <v>2509</v>
+        <v>2630</v>
       </c>
       <c r="F41" t="n">
         <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>781</v>
+        <v>835</v>
       </c>
       <c r="FALSE41" s="5"/>
     </row>
@@ -1437,13 +1437,13 @@
         <v>116</v>
       </c>
       <c r="E42" t="n">
-        <v>2625</v>
+        <v>2746</v>
       </c>
       <c r="F42" t="n">
         <v>32</v>
       </c>
       <c r="G42" t="n">
-        <v>813</v>
+        <v>867</v>
       </c>
       <c r="FALSE42" s="5"/>
     </row>
@@ -1461,13 +1461,13 @@
         <v>31</v>
       </c>
       <c r="E43" t="n">
-        <v>2656</v>
+        <v>2777</v>
       </c>
       <c r="F43" t="n">
         <v>28</v>
       </c>
       <c r="G43" t="n">
-        <v>841</v>
+        <v>895</v>
       </c>
       <c r="FALSE43" s="5"/>
     </row>
@@ -1485,13 +1485,13 @@
         <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>2660</v>
+        <v>2781</v>
       </c>
       <c r="F44" t="n">
         <v>12</v>
       </c>
       <c r="G44" t="n">
-        <v>853</v>
+        <v>907</v>
       </c>
       <c r="FALSE44" s="5"/>
     </row>
@@ -1509,13 +1509,13 @@
         <v>66</v>
       </c>
       <c r="E45" t="n">
-        <v>2726</v>
+        <v>2847</v>
       </c>
       <c r="F45" t="n">
         <v>36</v>
       </c>
       <c r="G45" t="n">
-        <v>889</v>
+        <v>943</v>
       </c>
       <c r="FALSE45" s="5"/>
     </row>
@@ -1533,13 +1533,13 @@
         <v>110</v>
       </c>
       <c r="E46" t="n">
-        <v>2836</v>
+        <v>2957</v>
       </c>
       <c r="F46" t="n">
         <v>33</v>
       </c>
       <c r="G46" t="n">
-        <v>922</v>
+        <v>976</v>
       </c>
       <c r="FALSE46" s="5"/>
     </row>
@@ -1557,13 +1557,13 @@
         <v>86</v>
       </c>
       <c r="E47" t="n">
-        <v>2922</v>
+        <v>3043</v>
       </c>
       <c r="F47" t="n">
         <v>43</v>
       </c>
       <c r="G47" t="n">
-        <v>965</v>
+        <v>1019</v>
       </c>
       <c r="FALSE47" s="5"/>
     </row>
@@ -1581,13 +1581,13 @@
         <v>123</v>
       </c>
       <c r="E48" t="n">
-        <v>3045</v>
+        <v>3166</v>
       </c>
       <c r="F48" t="n">
         <v>15</v>
       </c>
       <c r="G48" t="n">
-        <v>980</v>
+        <v>1034</v>
       </c>
       <c r="FALSE48" s="5"/>
     </row>
@@ -1605,13 +1605,13 @@
         <v>93</v>
       </c>
       <c r="E49" t="n">
-        <v>3138</v>
+        <v>3259</v>
       </c>
       <c r="F49" t="n">
         <v>45</v>
       </c>
       <c r="G49" t="n">
-        <v>1025</v>
+        <v>1079</v>
       </c>
       <c r="FALSE49" s="5"/>
     </row>
@@ -1629,13 +1629,13 @@
         <v>119</v>
       </c>
       <c r="E50" t="n">
-        <v>3257</v>
+        <v>3378</v>
       </c>
       <c r="F50" t="n">
         <v>46</v>
       </c>
       <c r="G50" t="n">
-        <v>1071</v>
+        <v>1125</v>
       </c>
       <c r="FALSE50" s="5"/>
     </row>
@@ -1653,13 +1653,13 @@
         <v>88</v>
       </c>
       <c r="E51" t="n">
-        <v>3345</v>
+        <v>3466</v>
       </c>
       <c r="F51" t="n">
         <v>16</v>
       </c>
       <c r="G51" t="n">
-        <v>1087</v>
+        <v>1141</v>
       </c>
       <c r="FALSE51" s="5"/>
     </row>
@@ -1677,13 +1677,13 @@
         <v>102</v>
       </c>
       <c r="E52" t="n">
-        <v>3447</v>
+        <v>3568</v>
       </c>
       <c r="F52" t="n">
         <v>67</v>
       </c>
       <c r="G52" t="n">
-        <v>1154</v>
+        <v>1208</v>
       </c>
       <c r="FALSE52" s="5"/>
     </row>
@@ -1701,13 +1701,13 @@
         <v>106</v>
       </c>
       <c r="E53" t="n">
-        <v>3553</v>
+        <v>3674</v>
       </c>
       <c r="F53" t="n">
         <v>54</v>
       </c>
       <c r="G53" t="n">
-        <v>1208</v>
+        <v>1262</v>
       </c>
       <c r="FALSE53" s="5"/>
     </row>
@@ -1725,13 +1725,13 @@
         <v>93</v>
       </c>
       <c r="E54" t="n">
-        <v>3646</v>
+        <v>3767</v>
       </c>
       <c r="F54" t="n">
         <v>47</v>
       </c>
       <c r="G54" t="n">
-        <v>1255</v>
+        <v>1309</v>
       </c>
       <c r="FALSE54" s="5"/>
     </row>
@@ -1749,13 +1749,13 @@
         <v>101</v>
       </c>
       <c r="E55" t="n">
-        <v>3747</v>
+        <v>3868</v>
       </c>
       <c r="F55" t="n">
         <v>35</v>
       </c>
       <c r="G55" t="n">
-        <v>1290</v>
+        <v>1344</v>
       </c>
       <c r="FALSE55" s="5"/>
     </row>
@@ -1773,13 +1773,13 @@
         <v>90</v>
       </c>
       <c r="E56" t="n">
-        <v>3837</v>
+        <v>3958</v>
       </c>
       <c r="F56" t="n">
         <v>19</v>
       </c>
       <c r="G56" t="n">
-        <v>1309</v>
+        <v>1363</v>
       </c>
       <c r="FALSE56" s="5"/>
     </row>
@@ -1797,13 +1797,13 @@
         <v>99</v>
       </c>
       <c r="E57" t="n">
-        <v>3936</v>
+        <v>4057</v>
       </c>
       <c r="F57" t="n">
         <v>24</v>
       </c>
       <c r="G57" t="n">
-        <v>1333</v>
+        <v>1387</v>
       </c>
       <c r="FALSE57" s="5"/>
     </row>
@@ -1821,13 +1821,13 @@
         <v>79</v>
       </c>
       <c r="E58" t="n">
-        <v>4015</v>
+        <v>4136</v>
       </c>
       <c r="F58" t="n">
         <v>30</v>
       </c>
       <c r="G58" t="n">
-        <v>1363</v>
+        <v>1417</v>
       </c>
       <c r="FALSE58" s="5"/>
     </row>
@@ -1845,13 +1845,13 @@
         <v>97</v>
       </c>
       <c r="E59" t="n">
-        <v>4112</v>
+        <v>4233</v>
       </c>
       <c r="F59" t="n">
         <v>28</v>
       </c>
       <c r="G59" t="n">
-        <v>1391</v>
+        <v>1445</v>
       </c>
       <c r="FALSE59" s="5"/>
     </row>
@@ -1869,13 +1869,13 @@
         <v>91</v>
       </c>
       <c r="E60" t="n">
-        <v>4203</v>
+        <v>4324</v>
       </c>
       <c r="F60" t="n">
         <v>35</v>
       </c>
       <c r="G60" t="n">
-        <v>1426</v>
+        <v>1480</v>
       </c>
       <c r="FALSE60" s="5"/>
     </row>
@@ -1893,13 +1893,13 @@
         <v>110</v>
       </c>
       <c r="E61" t="n">
-        <v>4313</v>
+        <v>4434</v>
       </c>
       <c r="F61" t="n">
         <v>14</v>
       </c>
       <c r="G61" t="n">
-        <v>1440</v>
+        <v>1494</v>
       </c>
       <c r="FALSE61" s="5"/>
     </row>
@@ -1917,13 +1917,13 @@
         <v>114</v>
       </c>
       <c r="E62" t="n">
-        <v>4427</v>
+        <v>4548</v>
       </c>
       <c r="F62" t="n">
         <v>37</v>
       </c>
       <c r="G62" t="n">
-        <v>1477</v>
+        <v>1531</v>
       </c>
       <c r="FALSE62" s="5"/>
     </row>
@@ -1941,13 +1941,13 @@
         <v>121</v>
       </c>
       <c r="E63" t="n">
-        <v>4548</v>
+        <v>4669</v>
       </c>
       <c r="F63" t="n">
         <v>18</v>
       </c>
       <c r="G63" t="n">
-        <v>1495</v>
+        <v>1549</v>
       </c>
       <c r="FALSE63" s="5"/>
     </row>
@@ -1965,13 +1965,13 @@
         <v>154</v>
       </c>
       <c r="E64" t="n">
-        <v>4702</v>
+        <v>4823</v>
       </c>
       <c r="F64" t="n">
         <v>38</v>
       </c>
       <c r="G64" t="n">
-        <v>1533</v>
+        <v>1587</v>
       </c>
       <c r="FALSE64" s="5"/>
     </row>
@@ -2114,13 +2114,13 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>5044</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>1590</v>
+        <v>24</v>
       </c>
       <c r="FALSE14" s="5"/>
     </row>
@@ -2138,13 +2138,13 @@
         <v>49</v>
       </c>
       <c r="E15" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F15" t="n">
         <v>38</v>
       </c>
       <c r="G15" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="FALSE15" s="5"/>
     </row>
@@ -2162,13 +2162,13 @@
         <v>130</v>
       </c>
       <c r="E16" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="FALSE16" s="5"/>
     </row>
@@ -2186,13 +2186,13 @@
         <v>140</v>
       </c>
       <c r="E17" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F17" t="n">
         <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="FALSE17" s="5"/>
     </row>
@@ -2210,13 +2210,13 @@
         <v>120</v>
       </c>
       <c r="E18" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F18" t="n">
         <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="FALSE18" s="5"/>
     </row>
@@ -2234,13 +2234,13 @@
         <v>108</v>
       </c>
       <c r="E19" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F19" t="n">
         <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="FALSE19" s="5"/>
     </row>
@@ -2258,13 +2258,13 @@
         <v>123</v>
       </c>
       <c r="E20" t="n">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F20" t="n">
         <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="FALSE20" s="5"/>
     </row>
@@ -2282,13 +2282,13 @@
         <v>96</v>
       </c>
       <c r="E21" t="n">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F21" t="n">
         <v>31</v>
       </c>
       <c r="G21" t="n">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="FALSE21" s="5"/>
     </row>
@@ -2306,13 +2306,13 @@
         <v>106</v>
       </c>
       <c r="E22" t="n">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="F22" t="n">
         <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="FALSE22" s="5"/>
     </row>
@@ -2330,13 +2330,13 @@
         <v>115</v>
       </c>
       <c r="E23" t="n">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="F23" t="n">
         <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="FALSE23" s="5"/>
     </row>
@@ -2354,13 +2354,13 @@
         <v>110</v>
       </c>
       <c r="E24" t="n">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="F24" t="n">
         <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="FALSE24" s="5"/>
     </row>
@@ -2378,13 +2378,13 @@
         <v>109</v>
       </c>
       <c r="E25" t="n">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="F25" t="n">
         <v>42</v>
       </c>
       <c r="G25" t="n">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="FALSE25" s="5"/>
     </row>
@@ -2402,13 +2402,13 @@
         <v>128</v>
       </c>
       <c r="E26" t="n">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="F26" t="n">
         <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="FALSE26" s="5"/>
     </row>
@@ -2426,13 +2426,13 @@
         <v>32</v>
       </c>
       <c r="E27" t="n">
-        <v>5076</v>
+        <v>1369</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
       </c>
       <c r="G27" t="n">
-        <v>1616</v>
+        <v>383</v>
       </c>
       <c r="FALSE27" s="5"/>
     </row>
@@ -2450,13 +2450,13 @@
         <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>1353</v>
+        <v>1388</v>
       </c>
       <c r="F28" t="n">
         <v>28</v>
       </c>
       <c r="G28" t="n">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="FALSE28" s="5"/>
     </row>
@@ -2474,13 +2474,13 @@
         <v>134</v>
       </c>
       <c r="E29" t="n">
-        <v>1487</v>
+        <v>1522</v>
       </c>
       <c r="F29" t="n">
         <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="FALSE29" s="5"/>
     </row>
@@ -2498,13 +2498,13 @@
         <v>115</v>
       </c>
       <c r="E30" t="n">
-        <v>1602</v>
+        <v>1637</v>
       </c>
       <c r="F30" t="n">
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="FALSE30" s="5"/>
     </row>
@@ -2522,13 +2522,13 @@
         <v>103</v>
       </c>
       <c r="E31" t="n">
-        <v>1705</v>
+        <v>1740</v>
       </c>
       <c r="F31" t="n">
         <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="FALSE31" s="5"/>
     </row>
@@ -2546,13 +2546,13 @@
         <v>72</v>
       </c>
       <c r="E32" t="n">
-        <v>1777</v>
+        <v>1812</v>
       </c>
       <c r="F32" t="n">
         <v>30</v>
       </c>
       <c r="G32" t="n">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="FALSE32" s="5"/>
     </row>
@@ -2570,13 +2570,13 @@
         <v>124</v>
       </c>
       <c r="E33" t="n">
-        <v>1901</v>
+        <v>1936</v>
       </c>
       <c r="F33" t="n">
         <v>23</v>
       </c>
       <c r="G33" t="n">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="FALSE33" s="5"/>
     </row>
@@ -2594,13 +2594,13 @@
         <v>108</v>
       </c>
       <c r="E34" t="n">
-        <v>5184</v>
+        <v>2044</v>
       </c>
       <c r="F34" t="n">
         <v>45</v>
       </c>
       <c r="G34" t="n">
-        <v>1661</v>
+        <v>601</v>
       </c>
       <c r="FALSE34" s="5"/>
     </row>
@@ -2618,13 +2618,13 @@
         <v>125</v>
       </c>
       <c r="E35" t="n">
-        <v>2026</v>
+        <v>2169</v>
       </c>
       <c r="F35" t="n">
         <v>64</v>
       </c>
       <c r="G35" t="n">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="FALSE35" s="5"/>
     </row>
@@ -2642,13 +2642,13 @@
         <v>86</v>
       </c>
       <c r="E36" t="n">
-        <v>2112</v>
+        <v>2255</v>
       </c>
       <c r="F36" t="n">
         <v>25</v>
       </c>
       <c r="G36" t="n">
-        <v>595</v>
+        <v>690</v>
       </c>
       <c r="FALSE36" s="5"/>
     </row>
@@ -2666,13 +2666,13 @@
         <v>104</v>
       </c>
       <c r="E37" t="n">
-        <v>2216</v>
+        <v>2359</v>
       </c>
       <c r="F37" t="n">
         <v>37</v>
       </c>
       <c r="G37" t="n">
-        <v>632</v>
+        <v>727</v>
       </c>
       <c r="FALSE37" s="5"/>
     </row>
@@ -2690,13 +2690,13 @@
         <v>117</v>
       </c>
       <c r="E38" t="n">
-        <v>2333</v>
+        <v>2476</v>
       </c>
       <c r="F38" t="n">
         <v>26</v>
       </c>
       <c r="G38" t="n">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="FALSE38" s="5"/>
     </row>
@@ -2714,13 +2714,13 @@
         <v>109</v>
       </c>
       <c r="E39" t="n">
-        <v>2442</v>
+        <v>2585</v>
       </c>
       <c r="F39" t="n">
         <v>22</v>
       </c>
       <c r="G39" t="n">
-        <v>680</v>
+        <v>775</v>
       </c>
       <c r="FALSE39" s="5"/>
     </row>
@@ -2738,13 +2738,13 @@
         <v>90</v>
       </c>
       <c r="E40" t="n">
-        <v>2532</v>
+        <v>2675</v>
       </c>
       <c r="F40" t="n">
         <v>38</v>
       </c>
       <c r="G40" t="n">
-        <v>718</v>
+        <v>813</v>
       </c>
       <c r="FALSE40" s="5"/>
     </row>
@@ -2762,13 +2762,13 @@
         <v>116</v>
       </c>
       <c r="E41" t="n">
-        <v>2648</v>
+        <v>2791</v>
       </c>
       <c r="F41" t="n">
         <v>40</v>
       </c>
       <c r="G41" t="n">
-        <v>758</v>
+        <v>853</v>
       </c>
       <c r="FALSE41" s="5"/>
     </row>
@@ -2786,13 +2786,13 @@
         <v>131</v>
       </c>
       <c r="E42" t="n">
-        <v>2779</v>
+        <v>2922</v>
       </c>
       <c r="F42" t="n">
         <v>23</v>
       </c>
       <c r="G42" t="n">
-        <v>781</v>
+        <v>876</v>
       </c>
       <c r="FALSE42" s="5"/>
     </row>
@@ -2810,13 +2810,13 @@
         <v>39</v>
       </c>
       <c r="E43" t="n">
-        <v>2818</v>
+        <v>2961</v>
       </c>
       <c r="F43" t="n">
         <v>47</v>
       </c>
       <c r="G43" t="n">
-        <v>828</v>
+        <v>923</v>
       </c>
       <c r="FALSE43" s="5"/>
     </row>
@@ -2834,13 +2834,13 @@
         <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>2831</v>
+        <v>2974</v>
       </c>
       <c r="F44" t="n">
         <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>848</v>
+        <v>943</v>
       </c>
       <c r="FALSE44" s="5"/>
     </row>
@@ -2858,13 +2858,13 @@
         <v>45</v>
       </c>
       <c r="E45" t="n">
-        <v>2876</v>
+        <v>3019</v>
       </c>
       <c r="F45" t="n">
         <v>26</v>
       </c>
       <c r="G45" t="n">
-        <v>874</v>
+        <v>969</v>
       </c>
       <c r="FALSE45" s="5"/>
     </row>
@@ -2882,13 +2882,13 @@
         <v>117</v>
       </c>
       <c r="E46" t="n">
-        <v>2993</v>
+        <v>3136</v>
       </c>
       <c r="F46" t="n">
         <v>34</v>
       </c>
       <c r="G46" t="n">
-        <v>908</v>
+        <v>1003</v>
       </c>
       <c r="FALSE46" s="5"/>
     </row>
@@ -2906,13 +2906,13 @@
         <v>116</v>
       </c>
       <c r="E47" t="n">
-        <v>3109</v>
+        <v>3252</v>
       </c>
       <c r="F47" t="n">
         <v>49</v>
       </c>
       <c r="G47" t="n">
-        <v>957</v>
+        <v>1052</v>
       </c>
       <c r="FALSE47" s="5"/>
     </row>
@@ -2930,13 +2930,13 @@
         <v>127</v>
       </c>
       <c r="E48" t="n">
-        <v>3236</v>
+        <v>3379</v>
       </c>
       <c r="F48" t="n">
         <v>19</v>
       </c>
       <c r="G48" t="n">
-        <v>976</v>
+        <v>1071</v>
       </c>
       <c r="FALSE48" s="5"/>
     </row>
@@ -2954,13 +2954,13 @@
         <v>129</v>
       </c>
       <c r="E49" t="n">
-        <v>3365</v>
+        <v>3508</v>
       </c>
       <c r="F49" t="n">
         <v>53</v>
       </c>
       <c r="G49" t="n">
-        <v>1029</v>
+        <v>1124</v>
       </c>
       <c r="FALSE49" s="5"/>
     </row>
@@ -2978,13 +2978,13 @@
         <v>86</v>
       </c>
       <c r="E50" t="n">
-        <v>3451</v>
+        <v>3594</v>
       </c>
       <c r="F50" t="n">
         <v>25</v>
       </c>
       <c r="G50" t="n">
-        <v>1054</v>
+        <v>1149</v>
       </c>
       <c r="FALSE50" s="5"/>
     </row>
@@ -3002,13 +3002,13 @@
         <v>106</v>
       </c>
       <c r="E51" t="n">
-        <v>3557</v>
+        <v>3700</v>
       </c>
       <c r="F51" t="n">
         <v>35</v>
       </c>
       <c r="G51" t="n">
-        <v>1089</v>
+        <v>1184</v>
       </c>
       <c r="FALSE51" s="5"/>
     </row>
@@ -3026,13 +3026,13 @@
         <v>99</v>
       </c>
       <c r="E52" t="n">
-        <v>3656</v>
+        <v>3799</v>
       </c>
       <c r="F52" t="n">
         <v>39</v>
       </c>
       <c r="G52" t="n">
-        <v>1128</v>
+        <v>1223</v>
       </c>
       <c r="FALSE52" s="5"/>
     </row>
@@ -3050,13 +3050,13 @@
         <v>113</v>
       </c>
       <c r="E53" t="n">
-        <v>3769</v>
+        <v>3912</v>
       </c>
       <c r="F53" t="n">
         <v>33</v>
       </c>
       <c r="G53" t="n">
-        <v>1161</v>
+        <v>1256</v>
       </c>
       <c r="FALSE53" s="5"/>
     </row>
@@ -3074,13 +3074,13 @@
         <v>113</v>
       </c>
       <c r="E54" t="n">
-        <v>3882</v>
+        <v>4025</v>
       </c>
       <c r="F54" t="n">
         <v>33</v>
       </c>
       <c r="G54" t="n">
-        <v>1194</v>
+        <v>1289</v>
       </c>
       <c r="FALSE54" s="5"/>
     </row>
@@ -3098,13 +3098,13 @@
         <v>109</v>
       </c>
       <c r="E55" t="n">
-        <v>3991</v>
+        <v>4134</v>
       </c>
       <c r="F55" t="n">
         <v>34</v>
       </c>
       <c r="G55" t="n">
-        <v>1228</v>
+        <v>1323</v>
       </c>
       <c r="FALSE55" s="5"/>
     </row>
@@ -3122,13 +3122,13 @@
         <v>107</v>
       </c>
       <c r="E56" t="n">
-        <v>4098</v>
+        <v>4241</v>
       </c>
       <c r="F56" t="n">
         <v>15</v>
       </c>
       <c r="G56" t="n">
-        <v>1243</v>
+        <v>1338</v>
       </c>
       <c r="FALSE56" s="5"/>
     </row>
@@ -3146,13 +3146,13 @@
         <v>109</v>
       </c>
       <c r="E57" t="n">
-        <v>4207</v>
+        <v>4350</v>
       </c>
       <c r="F57" t="n">
         <v>42</v>
       </c>
       <c r="G57" t="n">
-        <v>1285</v>
+        <v>1380</v>
       </c>
       <c r="FALSE57" s="5"/>
     </row>
@@ -3170,13 +3170,13 @@
         <v>94</v>
       </c>
       <c r="E58" t="n">
-        <v>4301</v>
+        <v>4444</v>
       </c>
       <c r="F58" t="n">
         <v>35</v>
       </c>
       <c r="G58" t="n">
-        <v>1320</v>
+        <v>1415</v>
       </c>
       <c r="FALSE58" s="5"/>
     </row>
@@ -3194,13 +3194,13 @@
         <v>103</v>
       </c>
       <c r="E59" t="n">
-        <v>4404</v>
+        <v>4547</v>
       </c>
       <c r="F59" t="n">
         <v>55</v>
       </c>
       <c r="G59" t="n">
-        <v>1375</v>
+        <v>1470</v>
       </c>
       <c r="FALSE59" s="5"/>
     </row>
@@ -3218,13 +3218,13 @@
         <v>82</v>
       </c>
       <c r="E60" t="n">
-        <v>4486</v>
+        <v>4629</v>
       </c>
       <c r="F60" t="n">
         <v>27</v>
       </c>
       <c r="G60" t="n">
-        <v>1402</v>
+        <v>1497</v>
       </c>
       <c r="FALSE60" s="5"/>
     </row>
@@ -3242,13 +3242,13 @@
         <v>122</v>
       </c>
       <c r="E61" t="n">
-        <v>4608</v>
+        <v>4751</v>
       </c>
       <c r="F61" t="n">
         <v>32</v>
       </c>
       <c r="G61" t="n">
-        <v>1434</v>
+        <v>1529</v>
       </c>
       <c r="FALSE61" s="5"/>
     </row>
@@ -3266,13 +3266,13 @@
         <v>112</v>
       </c>
       <c r="E62" t="n">
-        <v>4720</v>
+        <v>4863</v>
       </c>
       <c r="F62" t="n">
         <v>43</v>
       </c>
       <c r="G62" t="n">
-        <v>1477</v>
+        <v>1572</v>
       </c>
       <c r="FALSE62" s="5"/>
     </row>
@@ -3290,13 +3290,13 @@
         <v>138</v>
       </c>
       <c r="E63" t="n">
-        <v>4858</v>
+        <v>5001</v>
       </c>
       <c r="F63" t="n">
         <v>38</v>
       </c>
       <c r="G63" t="n">
-        <v>1515</v>
+        <v>1610</v>
       </c>
       <c r="FALSE63" s="5"/>
     </row>
@@ -3314,13 +3314,13 @@
         <v>142</v>
       </c>
       <c r="E64" t="n">
-        <v>5000</v>
+        <v>5143</v>
       </c>
       <c r="F64" t="n">
         <v>20</v>
       </c>
       <c r="G64" t="n">
-        <v>1535</v>
+        <v>1630</v>
       </c>
       <c r="FALSE64" s="5"/>
     </row>
@@ -3338,13 +3338,13 @@
         <v>41</v>
       </c>
       <c r="E65" t="n">
-        <v>5041</v>
+        <v>5184</v>
       </c>
       <c r="F65" t="n">
         <v>31</v>
       </c>
       <c r="G65" t="n">
-        <v>1566</v>
+        <v>1661</v>
       </c>
       <c r="FALSE65" s="5"/>
     </row>
@@ -3463,13 +3463,13 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>4948</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>1811</v>
+        <v>7</v>
       </c>
       <c r="FALSE14" s="5"/>
     </row>
@@ -3487,13 +3487,13 @@
         <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F15" t="n">
         <v>43</v>
       </c>
       <c r="G15" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="FALSE15" s="5"/>
     </row>
@@ -3511,13 +3511,13 @@
         <v>111</v>
       </c>
       <c r="E16" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F16" t="n">
         <v>41</v>
       </c>
       <c r="G16" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="FALSE16" s="5"/>
     </row>
@@ -3535,13 +3535,13 @@
         <v>122</v>
       </c>
       <c r="E17" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F17" t="n">
         <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="FALSE17" s="5"/>
     </row>
@@ -3559,13 +3559,13 @@
         <v>101</v>
       </c>
       <c r="E18" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F18" t="n">
         <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="FALSE18" s="5"/>
     </row>
@@ -3583,13 +3583,13 @@
         <v>105</v>
       </c>
       <c r="E19" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F19" t="n">
         <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="FALSE19" s="5"/>
     </row>
@@ -3607,13 +3607,13 @@
         <v>120</v>
       </c>
       <c r="E20" t="n">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="F20" t="n">
         <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="FALSE20" s="5"/>
     </row>
@@ -3631,13 +3631,13 @@
         <v>126</v>
       </c>
       <c r="E21" t="n">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F21" t="n">
         <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="FALSE21" s="5"/>
     </row>
@@ -3655,13 +3655,13 @@
         <v>122</v>
       </c>
       <c r="E22" t="n">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="F22" t="n">
         <v>47</v>
       </c>
       <c r="G22" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="FALSE22" s="5"/>
     </row>
@@ -3679,13 +3679,13 @@
         <v>109</v>
       </c>
       <c r="E23" t="n">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F23" t="n">
         <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="FALSE23" s="5"/>
     </row>
@@ -3703,13 +3703,13 @@
         <v>106</v>
       </c>
       <c r="E24" t="n">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="F24" t="n">
         <v>35</v>
       </c>
       <c r="G24" t="n">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="FALSE24" s="5"/>
     </row>
@@ -3727,13 +3727,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="n">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="F25" t="n">
         <v>42</v>
       </c>
       <c r="G25" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="FALSE25" s="5"/>
     </row>
@@ -3751,13 +3751,13 @@
         <v>116</v>
       </c>
       <c r="E26" t="n">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="F26" t="n">
         <v>39</v>
       </c>
       <c r="G26" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="FALSE26" s="5"/>
     </row>
@@ -3775,13 +3775,13 @@
         <v>118</v>
       </c>
       <c r="E27" t="n">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="F27" t="n">
         <v>38</v>
       </c>
       <c r="G27" t="n">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="FALSE27" s="5"/>
     </row>
@@ -3799,13 +3799,13 @@
         <v>99</v>
       </c>
       <c r="E28" t="n">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="F28" t="n">
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="FALSE28" s="5"/>
     </row>
@@ -3823,13 +3823,13 @@
         <v>78</v>
       </c>
       <c r="E29" t="n">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="F29" t="n">
         <v>51</v>
       </c>
       <c r="G29" t="n">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="FALSE29" s="5"/>
     </row>
@@ -3847,13 +3847,13 @@
         <v>37</v>
       </c>
       <c r="E30" t="n">
-        <v>4985</v>
+        <v>1594</v>
       </c>
       <c r="F30" t="n">
         <v>32</v>
       </c>
       <c r="G30" t="n">
-        <v>1843</v>
+        <v>619</v>
       </c>
       <c r="FALSE30" s="5"/>
     </row>
@@ -3871,13 +3871,13 @@
         <v>33</v>
       </c>
       <c r="E31" t="n">
-        <v>1587</v>
+        <v>1627</v>
       </c>
       <c r="F31" t="n">
         <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="FALSE31" s="5"/>
     </row>
@@ -3895,13 +3895,13 @@
         <v>154</v>
       </c>
       <c r="E32" t="n">
-        <v>1741</v>
+        <v>1781</v>
       </c>
       <c r="F32" t="n">
         <v>37</v>
       </c>
       <c r="G32" t="n">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="FALSE32" s="5"/>
     </row>
@@ -3919,13 +3919,13 @@
         <v>97</v>
       </c>
       <c r="E33" t="n">
-        <v>1838</v>
+        <v>1878</v>
       </c>
       <c r="F33" t="n">
         <v>37</v>
       </c>
       <c r="G33" t="n">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="FALSE33" s="5"/>
     </row>
@@ -3943,13 +3943,13 @@
         <v>134</v>
       </c>
       <c r="E34" t="n">
-        <v>1972</v>
+        <v>2012</v>
       </c>
       <c r="F34" t="n">
         <v>66</v>
       </c>
       <c r="G34" t="n">
-        <v>749</v>
+        <v>788</v>
       </c>
       <c r="FALSE34" s="5"/>
     </row>
@@ -3967,13 +3967,13 @@
         <v>92</v>
       </c>
       <c r="E35" t="n">
-        <v>2064</v>
+        <v>2104</v>
       </c>
       <c r="F35" t="n">
         <v>31</v>
       </c>
       <c r="G35" t="n">
-        <v>780</v>
+        <v>819</v>
       </c>
       <c r="FALSE35" s="5"/>
     </row>
@@ -3991,13 +3991,13 @@
         <v>120</v>
       </c>
       <c r="E36" t="n">
-        <v>2184</v>
+        <v>2224</v>
       </c>
       <c r="F36" t="n">
         <v>39</v>
       </c>
       <c r="G36" t="n">
-        <v>819</v>
+        <v>858</v>
       </c>
       <c r="FALSE36" s="5"/>
     </row>
@@ -4015,13 +4015,13 @@
         <v>71</v>
       </c>
       <c r="E37" t="n">
-        <v>5056</v>
+        <v>2295</v>
       </c>
       <c r="F37" t="n">
         <v>23</v>
       </c>
       <c r="G37" t="n">
-        <v>1866</v>
+        <v>881</v>
       </c>
       <c r="FALSE37" s="5"/>
     </row>
@@ -4039,13 +4039,13 @@
         <v>93</v>
       </c>
       <c r="E38" t="n">
-        <v>2277</v>
+        <v>2388</v>
       </c>
       <c r="F38" t="n">
         <v>41</v>
       </c>
       <c r="G38" t="n">
-        <v>860</v>
+        <v>922</v>
       </c>
       <c r="FALSE38" s="5"/>
     </row>
@@ -4063,13 +4063,13 @@
         <v>113</v>
       </c>
       <c r="E39" t="n">
-        <v>2390</v>
+        <v>2501</v>
       </c>
       <c r="F39" t="n">
         <v>23</v>
       </c>
       <c r="G39" t="n">
-        <v>883</v>
+        <v>945</v>
       </c>
       <c r="FALSE39" s="5"/>
     </row>
@@ -4087,13 +4087,13 @@
         <v>114</v>
       </c>
       <c r="E40" t="n">
-        <v>2504</v>
+        <v>2615</v>
       </c>
       <c r="F40" t="n">
         <v>44</v>
       </c>
       <c r="G40" t="n">
-        <v>927</v>
+        <v>989</v>
       </c>
       <c r="FALSE40" s="5"/>
     </row>
@@ -4111,13 +4111,13 @@
         <v>126</v>
       </c>
       <c r="E41" t="n">
-        <v>2630</v>
+        <v>2741</v>
       </c>
       <c r="F41" t="n">
         <v>23</v>
       </c>
       <c r="G41" t="n">
-        <v>950</v>
+        <v>1012</v>
       </c>
       <c r="FALSE41" s="5"/>
     </row>
@@ -4135,13 +4135,13 @@
         <v>133</v>
       </c>
       <c r="E42" t="n">
-        <v>2763</v>
+        <v>2874</v>
       </c>
       <c r="F42" t="n">
         <v>33</v>
       </c>
       <c r="G42" t="n">
-        <v>983</v>
+        <v>1045</v>
       </c>
       <c r="FALSE42" s="5"/>
     </row>
@@ -4159,13 +4159,13 @@
         <v>29</v>
       </c>
       <c r="E43" t="n">
-        <v>2792</v>
+        <v>2903</v>
       </c>
       <c r="F43" t="n">
         <v>32</v>
       </c>
       <c r="G43" t="n">
-        <v>1015</v>
+        <v>1077</v>
       </c>
       <c r="FALSE43" s="5"/>
     </row>
@@ -4183,13 +4183,13 @@
         <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>2807</v>
+        <v>2918</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
       </c>
       <c r="G44" t="n">
-        <v>1033</v>
+        <v>1095</v>
       </c>
       <c r="FALSE44" s="5"/>
     </row>
@@ -4207,13 +4207,13 @@
         <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>2833</v>
+        <v>2944</v>
       </c>
       <c r="F45" t="n">
         <v>31</v>
       </c>
       <c r="G45" t="n">
-        <v>1064</v>
+        <v>1126</v>
       </c>
       <c r="FALSE45" s="5"/>
     </row>
@@ -4231,13 +4231,13 @@
         <v>100</v>
       </c>
       <c r="E46" t="n">
-        <v>2933</v>
+        <v>3044</v>
       </c>
       <c r="F46" t="n">
         <v>33</v>
       </c>
       <c r="G46" t="n">
-        <v>1097</v>
+        <v>1159</v>
       </c>
       <c r="FALSE46" s="5"/>
     </row>
@@ -4255,13 +4255,13 @@
         <v>110</v>
       </c>
       <c r="E47" t="n">
-        <v>3043</v>
+        <v>3154</v>
       </c>
       <c r="F47" t="n">
         <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>1119</v>
+        <v>1181</v>
       </c>
       <c r="FALSE47" s="5"/>
     </row>
@@ -4279,13 +4279,13 @@
         <v>108</v>
       </c>
       <c r="E48" t="n">
-        <v>3151</v>
+        <v>3262</v>
       </c>
       <c r="F48" t="n">
         <v>37</v>
       </c>
       <c r="G48" t="n">
-        <v>1156</v>
+        <v>1218</v>
       </c>
       <c r="FALSE48" s="5"/>
     </row>
@@ -4303,13 +4303,13 @@
         <v>97</v>
       </c>
       <c r="E49" t="n">
-        <v>3248</v>
+        <v>3359</v>
       </c>
       <c r="F49" t="n">
         <v>53</v>
       </c>
       <c r="G49" t="n">
-        <v>1209</v>
+        <v>1271</v>
       </c>
       <c r="FALSE49" s="5"/>
     </row>
@@ -4327,13 +4327,13 @@
         <v>124</v>
       </c>
       <c r="E50" t="n">
-        <v>3372</v>
+        <v>3483</v>
       </c>
       <c r="F50" t="n">
         <v>48</v>
       </c>
       <c r="G50" t="n">
-        <v>1257</v>
+        <v>1319</v>
       </c>
       <c r="FALSE50" s="5"/>
     </row>
@@ -4351,13 +4351,13 @@
         <v>109</v>
       </c>
       <c r="E51" t="n">
-        <v>3481</v>
+        <v>3592</v>
       </c>
       <c r="F51" t="n">
         <v>36</v>
       </c>
       <c r="G51" t="n">
-        <v>1293</v>
+        <v>1355</v>
       </c>
       <c r="FALSE51" s="5"/>
     </row>
@@ -4375,13 +4375,13 @@
         <v>99</v>
       </c>
       <c r="E52" t="n">
-        <v>3580</v>
+        <v>3691</v>
       </c>
       <c r="F52" t="n">
         <v>35</v>
       </c>
       <c r="G52" t="n">
-        <v>1328</v>
+        <v>1390</v>
       </c>
       <c r="FALSE52" s="5"/>
     </row>
@@ -4399,13 +4399,13 @@
         <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>3680</v>
+        <v>3791</v>
       </c>
       <c r="F53" t="n">
         <v>33</v>
       </c>
       <c r="G53" t="n">
-        <v>1361</v>
+        <v>1423</v>
       </c>
       <c r="FALSE53" s="5"/>
     </row>
@@ -4423,13 +4423,13 @@
         <v>116</v>
       </c>
       <c r="E54" t="n">
-        <v>3796</v>
+        <v>3907</v>
       </c>
       <c r="F54" t="n">
         <v>55</v>
       </c>
       <c r="G54" t="n">
-        <v>1416</v>
+        <v>1478</v>
       </c>
       <c r="FALSE54" s="5"/>
     </row>
@@ -4447,13 +4447,13 @@
         <v>107</v>
       </c>
       <c r="E55" t="n">
-        <v>3903</v>
+        <v>4014</v>
       </c>
       <c r="F55" t="n">
         <v>36</v>
       </c>
       <c r="G55" t="n">
-        <v>1452</v>
+        <v>1514</v>
       </c>
       <c r="FALSE55" s="5"/>
     </row>
@@ -4471,13 +4471,13 @@
         <v>99</v>
       </c>
       <c r="E56" t="n">
-        <v>4002</v>
+        <v>4113</v>
       </c>
       <c r="F56" t="n">
         <v>49</v>
       </c>
       <c r="G56" t="n">
-        <v>1501</v>
+        <v>1563</v>
       </c>
       <c r="FALSE56" s="5"/>
     </row>
@@ -4495,13 +4495,13 @@
         <v>90</v>
       </c>
       <c r="E57" t="n">
-        <v>4092</v>
+        <v>4203</v>
       </c>
       <c r="F57" t="n">
         <v>43</v>
       </c>
       <c r="G57" t="n">
-        <v>1544</v>
+        <v>1606</v>
       </c>
       <c r="FALSE57" s="5"/>
     </row>
@@ -4519,13 +4519,13 @@
         <v>79</v>
       </c>
       <c r="E58" t="n">
-        <v>4171</v>
+        <v>4282</v>
       </c>
       <c r="F58" t="n">
         <v>28</v>
       </c>
       <c r="G58" t="n">
-        <v>1572</v>
+        <v>1634</v>
       </c>
       <c r="FALSE58" s="5"/>
     </row>
@@ -4543,13 +4543,13 @@
         <v>105</v>
       </c>
       <c r="E59" t="n">
-        <v>4276</v>
+        <v>4387</v>
       </c>
       <c r="F59" t="n">
         <v>32</v>
       </c>
       <c r="G59" t="n">
-        <v>1604</v>
+        <v>1666</v>
       </c>
       <c r="FALSE59" s="5"/>
     </row>
@@ -4567,13 +4567,13 @@
         <v>119</v>
       </c>
       <c r="E60" t="n">
-        <v>4395</v>
+        <v>4506</v>
       </c>
       <c r="F60" t="n">
         <v>41</v>
       </c>
       <c r="G60" t="n">
-        <v>1645</v>
+        <v>1707</v>
       </c>
       <c r="FALSE60" s="5"/>
     </row>
@@ -4591,13 +4591,13 @@
         <v>118</v>
       </c>
       <c r="E61" t="n">
-        <v>4513</v>
+        <v>4624</v>
       </c>
       <c r="F61" t="n">
         <v>29</v>
       </c>
       <c r="G61" t="n">
-        <v>1674</v>
+        <v>1736</v>
       </c>
       <c r="FALSE61" s="5"/>
     </row>
@@ -4615,13 +4615,13 @@
         <v>127</v>
       </c>
       <c r="E62" t="n">
-        <v>4640</v>
+        <v>4751</v>
       </c>
       <c r="F62" t="n">
         <v>29</v>
       </c>
       <c r="G62" t="n">
-        <v>1703</v>
+        <v>1765</v>
       </c>
       <c r="FALSE62" s="5"/>
     </row>
@@ -4639,13 +4639,13 @@
         <v>111</v>
       </c>
       <c r="E63" t="n">
-        <v>4751</v>
+        <v>4862</v>
       </c>
       <c r="F63" t="n">
         <v>29</v>
       </c>
       <c r="G63" t="n">
-        <v>1732</v>
+        <v>1794</v>
       </c>
       <c r="FALSE63" s="5"/>
     </row>
@@ -4663,13 +4663,13 @@
         <v>137</v>
       </c>
       <c r="E64" t="n">
-        <v>4888</v>
+        <v>4999</v>
       </c>
       <c r="F64" t="n">
         <v>48</v>
       </c>
       <c r="G64" t="n">
-        <v>1780</v>
+        <v>1842</v>
       </c>
       <c r="FALSE64" s="5"/>
     </row>
@@ -4687,13 +4687,13 @@
         <v>57</v>
       </c>
       <c r="E65" t="n">
-        <v>4945</v>
+        <v>5056</v>
       </c>
       <c r="F65" t="n">
         <v>24</v>
       </c>
       <c r="G65" t="n">
-        <v>1804</v>
+        <v>1866</v>
       </c>
       <c r="FALSE65" s="5"/>
     </row>
@@ -5172,13 +5172,13 @@
         <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>4136</v>
+        <v>1269</v>
       </c>
       <c r="F29" t="n">
         <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>1886</v>
+        <v>606</v>
       </c>
       <c r="FALSE29" s="5"/>
     </row>
@@ -5196,13 +5196,13 @@
         <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>1270</v>
+        <v>1285</v>
       </c>
       <c r="F30" t="n">
         <v>34</v>
       </c>
       <c r="G30" t="n">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="FALSE30" s="5"/>
     </row>
@@ -5220,13 +5220,13 @@
         <v>73</v>
       </c>
       <c r="E31" t="n">
-        <v>1343</v>
+        <v>1358</v>
       </c>
       <c r="F31" t="n">
         <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="FALSE31" s="5"/>
     </row>
@@ -5244,13 +5244,13 @@
         <v>50</v>
       </c>
       <c r="E32" t="n">
-        <v>1393</v>
+        <v>1408</v>
       </c>
       <c r="F32" t="n">
         <v>27</v>
       </c>
       <c r="G32" t="n">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="FALSE32" s="5"/>
     </row>
@@ -5268,13 +5268,13 @@
         <v>79</v>
       </c>
       <c r="E33" t="n">
-        <v>1472</v>
+        <v>1487</v>
       </c>
       <c r="F33" t="n">
         <v>43</v>
       </c>
       <c r="G33" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="FALSE33" s="5"/>
     </row>
@@ -5292,13 +5292,13 @@
         <v>77</v>
       </c>
       <c r="E34" t="n">
-        <v>1549</v>
+        <v>1564</v>
       </c>
       <c r="F34" t="n">
         <v>37</v>
       </c>
       <c r="G34" t="n">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="FALSE34" s="5"/>
     </row>
@@ -5316,13 +5316,13 @@
         <v>114</v>
       </c>
       <c r="E35" t="n">
-        <v>1663</v>
+        <v>1678</v>
       </c>
       <c r="F35" t="n">
         <v>49</v>
       </c>
       <c r="G35" t="n">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="FALSE35" s="5"/>
     </row>
@@ -5340,13 +5340,13 @@
         <v>83</v>
       </c>
       <c r="E36" t="n">
-        <v>4219</v>
+        <v>1761</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
       </c>
       <c r="G36" t="n">
-        <v>1921</v>
+        <v>865</v>
       </c>
       <c r="FALSE36" s="5"/>
     </row>
@@ -5364,13 +5364,13 @@
         <v>111</v>
       </c>
       <c r="E37" t="n">
-        <v>1774</v>
+        <v>1872</v>
       </c>
       <c r="F37" t="n">
         <v>54</v>
       </c>
       <c r="G37" t="n">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="FALSE37" s="5"/>
     </row>
@@ -5388,13 +5388,13 @@
         <v>107</v>
       </c>
       <c r="E38" t="n">
-        <v>1881</v>
+        <v>1979</v>
       </c>
       <c r="F38" t="n">
         <v>24</v>
       </c>
       <c r="G38" t="n">
-        <v>884</v>
+        <v>943</v>
       </c>
       <c r="FALSE38" s="5"/>
     </row>
@@ -5412,13 +5412,13 @@
         <v>83</v>
       </c>
       <c r="E39" t="n">
-        <v>1964</v>
+        <v>2062</v>
       </c>
       <c r="F39" t="n">
         <v>43</v>
       </c>
       <c r="G39" t="n">
-        <v>927</v>
+        <v>986</v>
       </c>
       <c r="FALSE39" s="5"/>
     </row>
@@ -5436,13 +5436,13 @@
         <v>60</v>
       </c>
       <c r="E40" t="n">
-        <v>2024</v>
+        <v>2122</v>
       </c>
       <c r="F40" t="n">
         <v>33</v>
       </c>
       <c r="G40" t="n">
-        <v>960</v>
+        <v>1019</v>
       </c>
       <c r="FALSE40" s="5"/>
     </row>
@@ -5460,13 +5460,13 @@
         <v>83</v>
       </c>
       <c r="E41" t="n">
-        <v>2107</v>
+        <v>2205</v>
       </c>
       <c r="F41" t="n">
         <v>39</v>
       </c>
       <c r="G41" t="n">
-        <v>999</v>
+        <v>1058</v>
       </c>
       <c r="FALSE41" s="5"/>
     </row>
@@ -5484,13 +5484,13 @@
         <v>86</v>
       </c>
       <c r="E42" t="n">
-        <v>2193</v>
+        <v>2291</v>
       </c>
       <c r="F42" t="n">
         <v>52</v>
       </c>
       <c r="G42" t="n">
-        <v>1051</v>
+        <v>1110</v>
       </c>
       <c r="FALSE42" s="5"/>
     </row>
@@ -5508,13 +5508,13 @@
         <v>48</v>
       </c>
       <c r="E43" t="n">
-        <v>2241</v>
+        <v>2339</v>
       </c>
       <c r="F43" t="n">
         <v>34</v>
       </c>
       <c r="G43" t="n">
-        <v>1085</v>
+        <v>1144</v>
       </c>
       <c r="FALSE43" s="5"/>
     </row>
@@ -5532,13 +5532,13 @@
         <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>2254</v>
+        <v>2352</v>
       </c>
       <c r="F44" t="n">
         <v>37</v>
       </c>
       <c r="G44" t="n">
-        <v>1122</v>
+        <v>1181</v>
       </c>
       <c r="FALSE44" s="5"/>
     </row>
@@ -5556,13 +5556,13 @@
         <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>2272</v>
+        <v>2370</v>
       </c>
       <c r="F45" t="n">
         <v>34</v>
       </c>
       <c r="G45" t="n">
-        <v>1156</v>
+        <v>1215</v>
       </c>
       <c r="FALSE45" s="5"/>
     </row>
@@ -5580,13 +5580,13 @@
         <v>90</v>
       </c>
       <c r="E46" t="n">
-        <v>2362</v>
+        <v>2460</v>
       </c>
       <c r="F46" t="n">
         <v>12</v>
       </c>
       <c r="G46" t="n">
-        <v>1168</v>
+        <v>1227</v>
       </c>
       <c r="FALSE46" s="5"/>
     </row>
@@ -5604,13 +5604,13 @@
         <v>111</v>
       </c>
       <c r="E47" t="n">
-        <v>2473</v>
+        <v>2571</v>
       </c>
       <c r="F47" t="n">
         <v>16</v>
       </c>
       <c r="G47" t="n">
-        <v>1184</v>
+        <v>1243</v>
       </c>
       <c r="FALSE47" s="5"/>
     </row>
@@ -5628,13 +5628,13 @@
         <v>95</v>
       </c>
       <c r="E48" t="n">
-        <v>2568</v>
+        <v>2666</v>
       </c>
       <c r="F48" t="n">
         <v>23</v>
       </c>
       <c r="G48" t="n">
-        <v>1207</v>
+        <v>1266</v>
       </c>
       <c r="FALSE48" s="5"/>
     </row>
@@ -5652,13 +5652,13 @@
         <v>86</v>
       </c>
       <c r="E49" t="n">
-        <v>2654</v>
+        <v>2752</v>
       </c>
       <c r="F49" t="n">
         <v>21</v>
       </c>
       <c r="G49" t="n">
-        <v>1228</v>
+        <v>1287</v>
       </c>
       <c r="FALSE49" s="5"/>
     </row>
@@ -5676,13 +5676,13 @@
         <v>83</v>
       </c>
       <c r="E50" t="n">
-        <v>2737</v>
+        <v>2835</v>
       </c>
       <c r="F50" t="n">
         <v>24</v>
       </c>
       <c r="G50" t="n">
-        <v>1252</v>
+        <v>1311</v>
       </c>
       <c r="FALSE50" s="5"/>
     </row>
@@ -5700,13 +5700,13 @@
         <v>87</v>
       </c>
       <c r="E51" t="n">
-        <v>2824</v>
+        <v>2922</v>
       </c>
       <c r="F51" t="n">
         <v>43</v>
       </c>
       <c r="G51" t="n">
-        <v>1295</v>
+        <v>1354</v>
       </c>
       <c r="FALSE51" s="5"/>
     </row>
@@ -5724,13 +5724,13 @@
         <v>79</v>
       </c>
       <c r="E52" t="n">
-        <v>2903</v>
+        <v>3001</v>
       </c>
       <c r="F52" t="n">
         <v>51</v>
       </c>
       <c r="G52" t="n">
-        <v>1346</v>
+        <v>1405</v>
       </c>
       <c r="FALSE52" s="5"/>
     </row>
@@ -5748,13 +5748,13 @@
         <v>91</v>
       </c>
       <c r="E53" t="n">
-        <v>2994</v>
+        <v>3092</v>
       </c>
       <c r="F53" t="n">
         <v>22</v>
       </c>
       <c r="G53" t="n">
-        <v>1368</v>
+        <v>1427</v>
       </c>
       <c r="FALSE53" s="5"/>
     </row>
@@ -5772,13 +5772,13 @@
         <v>83</v>
       </c>
       <c r="E54" t="n">
-        <v>3077</v>
+        <v>3175</v>
       </c>
       <c r="F54" t="n">
         <v>41</v>
       </c>
       <c r="G54" t="n">
-        <v>1409</v>
+        <v>1468</v>
       </c>
       <c r="FALSE54" s="5"/>
     </row>
@@ -5796,13 +5796,13 @@
         <v>92</v>
       </c>
       <c r="E55" t="n">
-        <v>3169</v>
+        <v>3267</v>
       </c>
       <c r="F55" t="n">
         <v>54</v>
       </c>
       <c r="G55" t="n">
-        <v>1463</v>
+        <v>1522</v>
       </c>
       <c r="FALSE55" s="5"/>
     </row>
@@ -5820,13 +5820,13 @@
         <v>92</v>
       </c>
       <c r="E56" t="n">
-        <v>3261</v>
+        <v>3359</v>
       </c>
       <c r="F56" t="n">
         <v>41</v>
       </c>
       <c r="G56" t="n">
-        <v>1504</v>
+        <v>1563</v>
       </c>
       <c r="FALSE56" s="5"/>
     </row>
@@ -5844,13 +5844,13 @@
         <v>78</v>
       </c>
       <c r="E57" t="n">
-        <v>3339</v>
+        <v>3437</v>
       </c>
       <c r="F57" t="n">
         <v>21</v>
       </c>
       <c r="G57" t="n">
-        <v>1525</v>
+        <v>1584</v>
       </c>
       <c r="FALSE57" s="5"/>
     </row>
@@ -5868,13 +5868,13 @@
         <v>108</v>
       </c>
       <c r="E58" t="n">
-        <v>3447</v>
+        <v>3545</v>
       </c>
       <c r="F58" t="n">
         <v>25</v>
       </c>
       <c r="G58" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="FALSE58" s="5"/>
     </row>
@@ -5892,13 +5892,13 @@
         <v>91</v>
       </c>
       <c r="E59" t="n">
-        <v>3538</v>
+        <v>3636</v>
       </c>
       <c r="F59" t="n">
         <v>41</v>
       </c>
       <c r="G59" t="n">
-        <v>1591</v>
+        <v>1650</v>
       </c>
       <c r="FALSE59" s="5"/>
     </row>
@@ -5916,13 +5916,13 @@
         <v>102</v>
       </c>
       <c r="E60" t="n">
-        <v>3640</v>
+        <v>3738</v>
       </c>
       <c r="F60" t="n">
         <v>25</v>
       </c>
       <c r="G60" t="n">
-        <v>1616</v>
+        <v>1675</v>
       </c>
       <c r="FALSE60" s="5"/>
     </row>
@@ -5940,13 +5940,13 @@
         <v>87</v>
       </c>
       <c r="E61" t="n">
-        <v>3727</v>
+        <v>3825</v>
       </c>
       <c r="F61" t="n">
         <v>69</v>
       </c>
       <c r="G61" t="n">
-        <v>1685</v>
+        <v>1744</v>
       </c>
       <c r="FALSE61" s="5"/>
     </row>
@@ -5964,13 +5964,13 @@
         <v>88</v>
       </c>
       <c r="E62" t="n">
-        <v>3815</v>
+        <v>3913</v>
       </c>
       <c r="F62" t="n">
         <v>49</v>
       </c>
       <c r="G62" t="n">
-        <v>1734</v>
+        <v>1793</v>
       </c>
       <c r="FALSE62" s="5"/>
     </row>
@@ -5988,13 +5988,13 @@
         <v>84</v>
       </c>
       <c r="E63" t="n">
-        <v>3899</v>
+        <v>3997</v>
       </c>
       <c r="F63" t="n">
         <v>39</v>
       </c>
       <c r="G63" t="n">
-        <v>1773</v>
+        <v>1832</v>
       </c>
       <c r="FALSE63" s="5"/>
     </row>
@@ -6012,13 +6012,13 @@
         <v>106</v>
       </c>
       <c r="E64" t="n">
-        <v>4005</v>
+        <v>4103</v>
       </c>
       <c r="F64" t="n">
         <v>34</v>
       </c>
       <c r="G64" t="n">
-        <v>1807</v>
+        <v>1866</v>
       </c>
       <c r="FALSE64" s="5"/>
     </row>
@@ -6036,13 +6036,13 @@
         <v>92</v>
       </c>
       <c r="E65" t="n">
-        <v>4097</v>
+        <v>4195</v>
       </c>
       <c r="F65" t="n">
         <v>35</v>
       </c>
       <c r="G65" t="n">
-        <v>1842</v>
+        <v>1901</v>
       </c>
       <c r="FALSE65" s="5"/>
     </row>
@@ -6060,13 +6060,13 @@
         <v>24</v>
       </c>
       <c r="E66" t="n">
-        <v>4121</v>
+        <v>4219</v>
       </c>
       <c r="F66" t="n">
         <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>1862</v>
+        <v>1921</v>
       </c>
       <c r="FALSE66" s="5"/>
     </row>
@@ -6497,13 +6497,13 @@
         <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>4281</v>
+        <v>1065</v>
       </c>
       <c r="F27" t="n">
         <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>2103</v>
+        <v>551</v>
       </c>
       <c r="FALSE27" s="5"/>
     </row>
@@ -6521,13 +6521,13 @@
         <v>39</v>
       </c>
       <c r="E28" t="n">
-        <v>1076</v>
+        <v>1104</v>
       </c>
       <c r="F28" t="n">
         <v>34</v>
       </c>
       <c r="G28" t="n">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="FALSE28" s="5"/>
     </row>
@@ -6545,13 +6545,13 @@
         <v>86</v>
       </c>
       <c r="E29" t="n">
-        <v>1162</v>
+        <v>1190</v>
       </c>
       <c r="F29" t="n">
         <v>57</v>
       </c>
       <c r="G29" t="n">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="FALSE29" s="5"/>
     </row>
@@ -6569,13 +6569,13 @@
         <v>103</v>
       </c>
       <c r="E30" t="n">
-        <v>1265</v>
+        <v>1293</v>
       </c>
       <c r="F30" t="n">
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="FALSE30" s="5"/>
     </row>
@@ -6593,13 +6593,13 @@
         <v>101</v>
       </c>
       <c r="E31" t="n">
-        <v>1366</v>
+        <v>1394</v>
       </c>
       <c r="F31" t="n">
         <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="FALSE31" s="5"/>
     </row>
@@ -6617,13 +6617,13 @@
         <v>79</v>
       </c>
       <c r="E32" t="n">
-        <v>1445</v>
+        <v>1473</v>
       </c>
       <c r="F32" t="n">
         <v>32</v>
       </c>
       <c r="G32" t="n">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="FALSE32" s="5"/>
     </row>
@@ -6641,13 +6641,13 @@
         <v>115</v>
       </c>
       <c r="E33" t="n">
-        <v>1560</v>
+        <v>1588</v>
       </c>
       <c r="F33" t="n">
         <v>39</v>
       </c>
       <c r="G33" t="n">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="FALSE33" s="5"/>
     </row>
@@ -6665,13 +6665,13 @@
         <v>80</v>
       </c>
       <c r="E34" t="n">
-        <v>4361</v>
+        <v>1668</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
       </c>
       <c r="G34" t="n">
-        <v>2136</v>
+        <v>812</v>
       </c>
       <c r="FALSE34" s="5"/>
     </row>
@@ -6689,13 +6689,13 @@
         <v>85</v>
       </c>
       <c r="E35" t="n">
-        <v>1645</v>
+        <v>1753</v>
       </c>
       <c r="F35" t="n">
         <v>49</v>
       </c>
       <c r="G35" t="n">
-        <v>798</v>
+        <v>861</v>
       </c>
       <c r="FALSE35" s="5"/>
     </row>
@@ -6713,13 +6713,13 @@
         <v>76</v>
       </c>
       <c r="E36" t="n">
-        <v>1721</v>
+        <v>1829</v>
       </c>
       <c r="F36" t="n">
         <v>27</v>
       </c>
       <c r="G36" t="n">
-        <v>825</v>
+        <v>888</v>
       </c>
       <c r="FALSE36" s="5"/>
     </row>
@@ -6737,13 +6737,13 @@
         <v>88</v>
       </c>
       <c r="E37" t="n">
-        <v>1809</v>
+        <v>1917</v>
       </c>
       <c r="F37" t="n">
         <v>38</v>
       </c>
       <c r="G37" t="n">
-        <v>863</v>
+        <v>926</v>
       </c>
       <c r="FALSE37" s="5"/>
     </row>
@@ -6761,13 +6761,13 @@
         <v>106</v>
       </c>
       <c r="E38" t="n">
-        <v>1915</v>
+        <v>2023</v>
       </c>
       <c r="F38" t="n">
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>908</v>
+        <v>971</v>
       </c>
       <c r="FALSE38" s="5"/>
     </row>
@@ -6785,13 +6785,13 @@
         <v>80</v>
       </c>
       <c r="E39" t="n">
-        <v>1995</v>
+        <v>2103</v>
       </c>
       <c r="F39" t="n">
         <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>953</v>
+        <v>1016</v>
       </c>
       <c r="FALSE39" s="5"/>
     </row>
@@ -6809,13 +6809,13 @@
         <v>94</v>
       </c>
       <c r="E40" t="n">
-        <v>2089</v>
+        <v>2197</v>
       </c>
       <c r="F40" t="n">
         <v>49</v>
       </c>
       <c r="G40" t="n">
-        <v>1002</v>
+        <v>1065</v>
       </c>
       <c r="FALSE40" s="5"/>
     </row>
@@ -6833,13 +6833,13 @@
         <v>95</v>
       </c>
       <c r="E41" t="n">
-        <v>2184</v>
+        <v>2292</v>
       </c>
       <c r="F41" t="n">
         <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>1032</v>
+        <v>1095</v>
       </c>
       <c r="FALSE41" s="5"/>
     </row>
@@ -6857,13 +6857,13 @@
         <v>91</v>
       </c>
       <c r="E42" t="n">
-        <v>2275</v>
+        <v>2383</v>
       </c>
       <c r="F42" t="n">
         <v>32</v>
       </c>
       <c r="G42" t="n">
-        <v>1064</v>
+        <v>1127</v>
       </c>
       <c r="FALSE42" s="5"/>
     </row>
@@ -6881,13 +6881,13 @@
         <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>2291</v>
+        <v>2399</v>
       </c>
       <c r="F43" t="n">
         <v>32</v>
       </c>
       <c r="G43" t="n">
-        <v>1096</v>
+        <v>1159</v>
       </c>
       <c r="FALSE43" s="5"/>
     </row>
@@ -6905,13 +6905,13 @@
         <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>2307</v>
+        <v>2415</v>
       </c>
       <c r="F44" t="n">
         <v>26</v>
       </c>
       <c r="G44" t="n">
-        <v>1122</v>
+        <v>1185</v>
       </c>
       <c r="FALSE44" s="5"/>
     </row>
@@ -6929,13 +6929,13 @@
         <v>74</v>
       </c>
       <c r="E45" t="n">
-        <v>2381</v>
+        <v>2489</v>
       </c>
       <c r="F45" t="n">
         <v>24</v>
       </c>
       <c r="G45" t="n">
-        <v>1146</v>
+        <v>1209</v>
       </c>
       <c r="FALSE45" s="5"/>
     </row>
@@ -6953,13 +6953,13 @@
         <v>82</v>
       </c>
       <c r="E46" t="n">
-        <v>2463</v>
+        <v>2571</v>
       </c>
       <c r="F46" t="n">
         <v>23</v>
       </c>
       <c r="G46" t="n">
-        <v>1169</v>
+        <v>1232</v>
       </c>
       <c r="FALSE46" s="5"/>
     </row>
@@ -6977,13 +6977,13 @@
         <v>103</v>
       </c>
       <c r="E47" t="n">
-        <v>2566</v>
+        <v>2674</v>
       </c>
       <c r="F47" t="n">
         <v>49</v>
       </c>
       <c r="G47" t="n">
-        <v>1218</v>
+        <v>1281</v>
       </c>
       <c r="FALSE47" s="5"/>
     </row>
@@ -7001,13 +7001,13 @@
         <v>117</v>
       </c>
       <c r="E48" t="n">
-        <v>2683</v>
+        <v>2791</v>
       </c>
       <c r="F48" t="n">
         <v>53</v>
       </c>
       <c r="G48" t="n">
-        <v>1271</v>
+        <v>1334</v>
       </c>
       <c r="FALSE48" s="5"/>
     </row>
@@ -7025,13 +7025,13 @@
         <v>94</v>
       </c>
       <c r="E49" t="n">
-        <v>2777</v>
+        <v>2885</v>
       </c>
       <c r="F49" t="n">
         <v>33</v>
       </c>
       <c r="G49" t="n">
-        <v>1304</v>
+        <v>1367</v>
       </c>
       <c r="FALSE49" s="5"/>
     </row>
@@ -7049,13 +7049,13 @@
         <v>112</v>
       </c>
       <c r="E50" t="n">
-        <v>2889</v>
+        <v>2997</v>
       </c>
       <c r="F50" t="n">
         <v>35</v>
       </c>
       <c r="G50" t="n">
-        <v>1339</v>
+        <v>1402</v>
       </c>
       <c r="FALSE50" s="5"/>
     </row>
@@ -7073,13 +7073,13 @@
         <v>89</v>
       </c>
       <c r="E51" t="n">
-        <v>2978</v>
+        <v>3086</v>
       </c>
       <c r="F51" t="n">
         <v>48</v>
       </c>
       <c r="G51" t="n">
-        <v>1387</v>
+        <v>1450</v>
       </c>
       <c r="FALSE51" s="5"/>
     </row>
@@ -7097,13 +7097,13 @@
         <v>91</v>
       </c>
       <c r="E52" t="n">
-        <v>3069</v>
+        <v>3177</v>
       </c>
       <c r="F52" t="n">
         <v>51</v>
       </c>
       <c r="G52" t="n">
-        <v>1438</v>
+        <v>1501</v>
       </c>
       <c r="FALSE52" s="5"/>
     </row>
@@ -7121,13 +7121,13 @@
         <v>95</v>
       </c>
       <c r="E53" t="n">
-        <v>3164</v>
+        <v>3272</v>
       </c>
       <c r="F53" t="n">
         <v>52</v>
       </c>
       <c r="G53" t="n">
-        <v>1490</v>
+        <v>1553</v>
       </c>
       <c r="FALSE53" s="5"/>
     </row>
@@ -7145,13 +7145,13 @@
         <v>72</v>
       </c>
       <c r="E54" t="n">
-        <v>3236</v>
+        <v>3344</v>
       </c>
       <c r="F54" t="n">
         <v>49</v>
       </c>
       <c r="G54" t="n">
-        <v>1539</v>
+        <v>1602</v>
       </c>
       <c r="FALSE54" s="5"/>
     </row>
@@ -7169,13 +7169,13 @@
         <v>84</v>
       </c>
       <c r="E55" t="n">
-        <v>3320</v>
+        <v>3428</v>
       </c>
       <c r="F55" t="n">
         <v>44</v>
       </c>
       <c r="G55" t="n">
-        <v>1583</v>
+        <v>1646</v>
       </c>
       <c r="FALSE55" s="5"/>
     </row>
@@ -7193,13 +7193,13 @@
         <v>92</v>
       </c>
       <c r="E56" t="n">
-        <v>3412</v>
+        <v>3520</v>
       </c>
       <c r="F56" t="n">
         <v>38</v>
       </c>
       <c r="G56" t="n">
-        <v>1621</v>
+        <v>1684</v>
       </c>
       <c r="FALSE56" s="5"/>
     </row>
@@ -7217,13 +7217,13 @@
         <v>85</v>
       </c>
       <c r="E57" t="n">
-        <v>3497</v>
+        <v>3605</v>
       </c>
       <c r="F57" t="n">
         <v>39</v>
       </c>
       <c r="G57" t="n">
-        <v>1660</v>
+        <v>1723</v>
       </c>
       <c r="FALSE57" s="5"/>
     </row>
@@ -7241,13 +7241,13 @@
         <v>93</v>
       </c>
       <c r="E58" t="n">
-        <v>3590</v>
+        <v>3698</v>
       </c>
       <c r="F58" t="n">
         <v>51</v>
       </c>
       <c r="G58" t="n">
-        <v>1711</v>
+        <v>1774</v>
       </c>
       <c r="FALSE58" s="5"/>
     </row>
@@ -7265,13 +7265,13 @@
         <v>88</v>
       </c>
       <c r="E59" t="n">
-        <v>3678</v>
+        <v>3786</v>
       </c>
       <c r="F59" t="n">
         <v>73</v>
       </c>
       <c r="G59" t="n">
-        <v>1784</v>
+        <v>1847</v>
       </c>
       <c r="FALSE59" s="5"/>
     </row>
@@ -7289,13 +7289,13 @@
         <v>119</v>
       </c>
       <c r="E60" t="n">
-        <v>3797</v>
+        <v>3905</v>
       </c>
       <c r="F60" t="n">
         <v>55</v>
       </c>
       <c r="G60" t="n">
-        <v>1839</v>
+        <v>1902</v>
       </c>
       <c r="FALSE60" s="5"/>
     </row>
@@ -7313,13 +7313,13 @@
         <v>92</v>
       </c>
       <c r="E61" t="n">
-        <v>3889</v>
+        <v>3997</v>
       </c>
       <c r="F61" t="n">
         <v>73</v>
       </c>
       <c r="G61" t="n">
-        <v>1912</v>
+        <v>1975</v>
       </c>
       <c r="FALSE61" s="5"/>
     </row>
@@ -7337,13 +7337,13 @@
         <v>99</v>
       </c>
       <c r="E62" t="n">
-        <v>3988</v>
+        <v>4096</v>
       </c>
       <c r="F62" t="n">
         <v>37</v>
       </c>
       <c r="G62" t="n">
-        <v>1949</v>
+        <v>2012</v>
       </c>
       <c r="FALSE62" s="5"/>
     </row>
@@ -7361,13 +7361,13 @@
         <v>122</v>
       </c>
       <c r="E63" t="n">
-        <v>4110</v>
+        <v>4218</v>
       </c>
       <c r="F63" t="n">
         <v>49</v>
       </c>
       <c r="G63" t="n">
-        <v>1998</v>
+        <v>2061</v>
       </c>
       <c r="FALSE63" s="5"/>
     </row>
@@ -7385,13 +7385,13 @@
         <v>130</v>
       </c>
       <c r="E64" t="n">
-        <v>4240</v>
+        <v>4348</v>
       </c>
       <c r="F64" t="n">
         <v>58</v>
       </c>
       <c r="G64" t="n">
-        <v>2056</v>
+        <v>2119</v>
       </c>
       <c r="FALSE64" s="5"/>
     </row>
@@ -7409,13 +7409,13 @@
         <v>13</v>
       </c>
       <c r="E65" t="n">
-        <v>4253</v>
+        <v>4361</v>
       </c>
       <c r="F65" t="n">
         <v>17</v>
       </c>
       <c r="G65" t="n">
-        <v>2073</v>
+        <v>2136</v>
       </c>
       <c r="FALSE65" s="5"/>
     </row>
@@ -7616,6 +7616,102 @@
       </c>
       <c r="FALSE17" s="5"/>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>44592</v>
+      </c>
+      <c r="D18" t="n">
+        <v>103</v>
+      </c>
+      <c r="E18" t="n">
+        <v>445</v>
+      </c>
+      <c r="F18" t="n">
+        <v>82</v>
+      </c>
+      <c r="G18" t="n">
+        <v>330</v>
+      </c>
+      <c r="FALSE18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D19" t="n">
+        <v>92</v>
+      </c>
+      <c r="E19" t="n">
+        <v>537</v>
+      </c>
+      <c r="F19" t="n">
+        <v>60</v>
+      </c>
+      <c r="G19" t="n">
+        <v>390</v>
+      </c>
+      <c r="FALSE19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>44606</v>
+      </c>
+      <c r="D20" t="n">
+        <v>91</v>
+      </c>
+      <c r="E20" t="n">
+        <v>628</v>
+      </c>
+      <c r="F20" t="n">
+        <v>51</v>
+      </c>
+      <c r="G20" t="n">
+        <v>441</v>
+      </c>
+      <c r="FALSE20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>44613</v>
+      </c>
+      <c r="D21" t="n">
+        <v>92</v>
+      </c>
+      <c r="E21" t="n">
+        <v>720</v>
+      </c>
+      <c r="F21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G21" t="n">
+        <v>507</v>
+      </c>
+      <c r="FALSE21" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:Z7"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  02.03.2022  durch:  </t>
+    <t xml:space="preserve">Aktualisiert am  05.04.2022  durch:  </t>
   </si>
   <si>
     <t xml:space="preserve">Jahr  </t>
@@ -7712,6 +7712,126 @@
       </c>
       <c r="FALSE21" s="5"/>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>44620</v>
+      </c>
+      <c r="D22" t="n">
+        <v>110</v>
+      </c>
+      <c r="E22" t="n">
+        <v>830</v>
+      </c>
+      <c r="F22" t="n">
+        <v>63</v>
+      </c>
+      <c r="G22" t="n">
+        <v>570</v>
+      </c>
+      <c r="FALSE22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>44627</v>
+      </c>
+      <c r="D23" t="n">
+        <v>66</v>
+      </c>
+      <c r="E23" t="n">
+        <v>896</v>
+      </c>
+      <c r="F23" t="n">
+        <v>58</v>
+      </c>
+      <c r="G23" t="n">
+        <v>628</v>
+      </c>
+      <c r="FALSE23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>44634</v>
+      </c>
+      <c r="D24" t="n">
+        <v>114</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1010</v>
+      </c>
+      <c r="F24" t="n">
+        <v>55</v>
+      </c>
+      <c r="G24" t="n">
+        <v>683</v>
+      </c>
+      <c r="FALSE24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="D25" t="n">
+        <v>102</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1112</v>
+      </c>
+      <c r="F25" t="n">
+        <v>40</v>
+      </c>
+      <c r="G25" t="n">
+        <v>723</v>
+      </c>
+      <c r="FALSE25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="D26" t="n">
+        <v>118</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1230</v>
+      </c>
+      <c r="F26" t="n">
+        <v>55</v>
+      </c>
+      <c r="G26" t="n">
+        <v>778</v>
+      </c>
+      <c r="FALSE26" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:Z7"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  05.04.2022  durch:  </t>
+    <t xml:space="preserve">Aktualisiert am  03.05.2022  durch:  </t>
   </si>
   <si>
     <t xml:space="preserve">Jahr  </t>
@@ -7832,6 +7832,102 @@
       </c>
       <c r="FALSE26" s="5"/>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>44655</v>
+      </c>
+      <c r="D27" t="n">
+        <v>114</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1344</v>
+      </c>
+      <c r="F27" t="n">
+        <v>52</v>
+      </c>
+      <c r="G27" t="n">
+        <v>830</v>
+      </c>
+      <c r="FALSE27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>44662</v>
+      </c>
+      <c r="D28" t="n">
+        <v>105</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1449</v>
+      </c>
+      <c r="F28" t="n">
+        <v>33</v>
+      </c>
+      <c r="G28" t="n">
+        <v>863</v>
+      </c>
+      <c r="FALSE28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>44669</v>
+      </c>
+      <c r="D29" t="n">
+        <v>30</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1479</v>
+      </c>
+      <c r="F29" t="n">
+        <v>61</v>
+      </c>
+      <c r="G29" t="n">
+        <v>924</v>
+      </c>
+      <c r="FALSE29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="n">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>44676</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F30" t="n">
+        <v>82</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1006</v>
+      </c>
+      <c r="FALSE30" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:Z7"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  03.05.2022  durch:  </t>
+    <t xml:space="preserve">Aktualisiert am  31.05.2022  durch:  </t>
   </si>
   <si>
     <t xml:space="preserve">Jahr  </t>
@@ -7928,6 +7928,102 @@
       </c>
       <c r="FALSE30" s="5"/>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>44683</v>
+      </c>
+      <c r="D31" t="n">
+        <v>155</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1655</v>
+      </c>
+      <c r="F31" t="n">
+        <v>81</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1087</v>
+      </c>
+      <c r="FALSE31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>44690</v>
+      </c>
+      <c r="D32" t="n">
+        <v>131</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1786</v>
+      </c>
+      <c r="F32" t="n">
+        <v>56</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1143</v>
+      </c>
+      <c r="FALSE32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>44697</v>
+      </c>
+      <c r="D33" t="n">
+        <v>95</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1881</v>
+      </c>
+      <c r="F33" t="n">
+        <v>85</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1228</v>
+      </c>
+      <c r="FALSE33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="n">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>44704</v>
+      </c>
+      <c r="D34" t="n">
+        <v>96</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1977</v>
+      </c>
+      <c r="F34" t="n">
+        <v>45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1273</v>
+      </c>
+      <c r="FALSE34" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:Z7"/>

--- a/Economy_SHAB_inclorgmangel.xlsx
+++ b/Economy_SHAB_inclorgmangel.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">http://www.statistik.zh.ch</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktualisiert am  31.05.2022  durch:  </t>
+    <t xml:space="preserve">Aktualisiert am  01.06.2022  durch:  </t>
   </si>
   <si>
     <t xml:space="preserve">Jahr  </t>
